--- a/LectureTimeTable/LectureTimeTable/bin/Debug/Folder/관심과목목록.xlsx
+++ b/LectureTimeTable/LectureTimeTable/bin/Debug/Folder/관심과목목록.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\en#\LectureTimeTable\LectureTimeTable\bin\Debug\Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61977776-9097-40E1-9D2C-B086B271DCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CDD088-A4F8-4871-A20A-6ACE230A50D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{04BF2106-4EAF-4CAF-B162-AAEA542D2920}"/>
   </bookViews>
@@ -440,7 +440,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/LectureTimeTable/LectureTimeTable/bin/Debug/Folder/관심과목목록.xlsx
+++ b/LectureTimeTable/LectureTimeTable/bin/Debug/Folder/관심과목목록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\en#\LectureTimeTable\LectureTimeTable\bin\Debug\Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CDD088-A4F8-4871-A20A-6ACE230A50D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0774988F-845A-4BE1-8380-5F4CD2044592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{04BF2106-4EAF-4CAF-B162-AAEA542D2920}"/>
+    <workbookView xWindow="2620" yWindow="2620" windowWidth="14400" windowHeight="7360" xr2:uid="{04BF2106-4EAF-4CAF-B162-AAEA542D2920}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>NO</t>
   </si>
@@ -71,6 +71,27 @@
   </si>
   <si>
     <t>강의언어</t>
+  </si>
+  <si>
+    <t>컴퓨터공학과</t>
+  </si>
+  <si>
+    <t>신입생세미나A</t>
+  </si>
+  <si>
+    <t>공통교양필수</t>
+  </si>
+  <si>
+    <t>금 18:00~19:00</t>
+  </si>
+  <si>
+    <t>센B209</t>
+  </si>
+  <si>
+    <t>박태순</t>
+  </si>
+  <si>
+    <t>한국어</t>
   </si>
 </sst>
 </file>
@@ -437,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC96FE8-495D-4ED7-98B3-B154081F9D75}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
@@ -483,6 +504,44 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>11302</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LectureTimeTable/LectureTimeTable/bin/Debug/Folder/관심과목목록.xlsx
+++ b/LectureTimeTable/LectureTimeTable/bin/Debug/Folder/관심과목목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\en#\LectureTimeTable\LectureTimeTable\bin\Debug\Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0774988F-845A-4BE1-8380-5F4CD2044592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B70B866-ED40-4912-8F13-C2EE124E1481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2620" yWindow="2620" windowWidth="14400" windowHeight="7360" xr2:uid="{04BF2106-4EAF-4CAF-B162-AAEA542D2920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>NO</t>
   </si>
@@ -76,22 +76,100 @@
     <t>컴퓨터공학과</t>
   </si>
   <si>
-    <t>신입생세미나A</t>
-  </si>
-  <si>
-    <t>공통교양필수</t>
-  </si>
-  <si>
-    <t>금 18:00~19:00</t>
-  </si>
-  <si>
-    <t>센B209</t>
-  </si>
-  <si>
-    <t>박태순</t>
+    <t>C프로그래밍및실습</t>
+  </si>
+  <si>
+    <t>전공필수</t>
+  </si>
+  <si>
+    <t>목 16:30~18:30</t>
+  </si>
+  <si>
+    <t>센B206</t>
+  </si>
+  <si>
+    <t>김도년</t>
   </si>
   <si>
     <t>한국어</t>
+  </si>
+  <si>
+    <t>고급C프로그래밍및실습</t>
+  </si>
+  <si>
+    <t>수 16:30~18:30</t>
+  </si>
+  <si>
+    <t>센B203</t>
+  </si>
+  <si>
+    <t>기계항공우주공학부</t>
+  </si>
+  <si>
+    <t>기초설계</t>
+  </si>
+  <si>
+    <t>화 목 10:30~12:00</t>
+  </si>
+  <si>
+    <t>충1103</t>
+  </si>
+  <si>
+    <t>이권용</t>
+  </si>
+  <si>
+    <t>확률통계및프로그래밍</t>
+  </si>
+  <si>
+    <t>전공선택</t>
+  </si>
+  <si>
+    <t>센B212</t>
+  </si>
+  <si>
+    <t>김해광</t>
+  </si>
+  <si>
+    <t>영어</t>
+  </si>
+  <si>
+    <t>센B202</t>
+  </si>
+  <si>
+    <t>김천식</t>
+  </si>
+  <si>
+    <t>월 수 16:30~18:30</t>
+  </si>
+  <si>
+    <t>센B209,센B206</t>
+  </si>
+  <si>
+    <t>Anish Prasad Shrestha</t>
+  </si>
+  <si>
+    <t>지능기전공학부</t>
+  </si>
+  <si>
+    <t>선형대수및프로그래밍</t>
+  </si>
+  <si>
+    <t>화 수 16:30~18:00</t>
+  </si>
+  <si>
+    <t>센B210</t>
+  </si>
+  <si>
+    <t>박성훈</t>
+  </si>
+  <si>
+    <t>웹프로그래밍</t>
+  </si>
+  <si>
+    <t>금 15:00~18:00</t>
+  </si>
+  <si>
+    <t>김문석</t>
   </si>
 </sst>
 </file>
@@ -458,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC96FE8-495D-4ED7-98B3-B154081F9D75}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -506,16 +584,16 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2">
-        <v>11302</v>
+        <v>9912</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -527,7 +605,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
@@ -539,6 +617,272 @@
         <v>17</v>
       </c>
       <c r="L2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>9913</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>162</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>7620</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>9959</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>9912</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>9913</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>134</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>9961</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>6237</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" t="s">
         <v>18</v>
       </c>
     </row>
